--- a/biology/Botanique/Hoff_Norske_PotetIndustrier/Hoff_Norske_PotetIndustrier.xlsx
+++ b/biology/Botanique/Hoff_Norske_PotetIndustrier/Hoff_Norske_PotetIndustrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 HOFF Norske Potetindustrier est une entreprise norvégienne spécialisée dans la production et la commercialisation de produits transformés de pommes de terre. C'est une coopérative agricole, propriété de ses 4000 agriculteurs adhérents, dont 400 sont des producteurs actifs de pommes de terre.
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première production industrialisée à partir de pommes de terre fut la distillerie qui a démarré en 1848, date à laquelle la distillation privée fut interdite. En 1879, fut créée, sous forme de coopérative, la première du pays, l'entreprise Brennerienes Forening. La farine de pomme de terre est devenue un produit industriel vers la fin des années 1880, bien qu'il fallut attendre 1941 pour voir la création de Potetmelfabrikkenes Salgskontor, également fondée sous le statut de coopérative.
 Ces deux entreprises ont fusionné en 1981 pour former Norske Potetindustrier, qui prit ensuite, en 1994,  le nom de Hoff Norske Potetindustrier' quand les distilleries locales et les usines de production furent réunies avec les services de distribution. 
